--- a/municipal/ENG/Hotels/Number of Employees in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Employees in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები\3.3 Number of Employees in Hotels and Hotel-type enterprises\Samegrelo-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\სასტუმროში დასაქმებულიები ქარ. EN\Number of Employees in Hotels and Hotel-type enterprises\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504CA7D8-008A-4ECC-98CF-203A2DB7DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="10515"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mestia" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>(Man)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>All</t>
   </si>
@@ -41,36 +39,17 @@
     <t>Number of Employees in Hotels and Hotel-type enterprises in Mestia Municipality</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Data is confidential or not available</t>
-    </r>
+    <t>(Persons)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,19 +64,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -131,14 +97,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -236,71 +194,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,280 +528,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:37" s="9" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="17"/>
+    </row>
+    <row r="2" spans="1:37" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
     </row>
-    <row r="2" spans="1:37" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="15">
+        <v>2019</v>
+      </c>
+      <c r="L3" s="15">
+        <v>2020</v>
+      </c>
+      <c r="M3" s="15">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="15">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
+      <c r="B4" s="1">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92</v>
+      </c>
+      <c r="E4" s="1">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>135</v>
+      </c>
+      <c r="H4" s="1">
+        <v>133</v>
+      </c>
+      <c r="I4" s="1">
+        <v>153</v>
+      </c>
+      <c r="J4" s="1">
+        <v>185</v>
+      </c>
+      <c r="K4" s="1">
+        <v>184</v>
+      </c>
+      <c r="L4" s="1">
+        <v>72</v>
+      </c>
+      <c r="M4" s="1">
+        <v>217</v>
+      </c>
+      <c r="N4" s="1">
+        <v>201</v>
+      </c>
+      <c r="O4" s="1">
+        <v>252</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="19">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="19">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2012</v>
-      </c>
-      <c r="E3" s="19">
-        <v>2013</v>
-      </c>
-      <c r="F3" s="19">
-        <v>2014</v>
-      </c>
-      <c r="G3" s="19">
-        <v>2015</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="19">
-        <v>2017</v>
-      </c>
-      <c r="J3" s="19">
-        <v>2018</v>
-      </c>
-      <c r="K3" s="19">
-        <v>2019</v>
-      </c>
-      <c r="L3" s="19">
-        <v>2020</v>
-      </c>
-      <c r="M3" s="19">
-        <v>2021</v>
+    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2">
+        <v>83</v>
+      </c>
+      <c r="F5" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2">
+        <v>101</v>
+      </c>
+      <c r="I5" s="2">
+        <v>118</v>
+      </c>
+      <c r="J5" s="2">
+        <v>131</v>
+      </c>
+      <c r="K5" s="2">
+        <v>132</v>
+      </c>
+      <c r="L5" s="2">
+        <v>57</v>
+      </c>
+      <c r="M5" s="2">
+        <v>148</v>
+      </c>
+      <c r="N5" s="2">
+        <v>138</v>
+      </c>
+      <c r="O5" s="2">
+        <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4">
-        <v>60</v>
-      </c>
-      <c r="D4" s="4">
-        <v>92</v>
-      </c>
-      <c r="E4" s="4">
-        <v>109</v>
-      </c>
-      <c r="F4" s="4">
-        <v>100</v>
-      </c>
-      <c r="G4" s="4">
-        <v>135</v>
-      </c>
-      <c r="H4" s="4">
-        <v>133</v>
-      </c>
-      <c r="I4" s="4">
-        <v>153</v>
-      </c>
-      <c r="J4" s="4">
-        <v>185</v>
-      </c>
-      <c r="K4" s="4">
-        <v>184</v>
-      </c>
-      <c r="L4" s="4">
-        <v>72</v>
-      </c>
-      <c r="M4" s="4">
-        <v>217</v>
-      </c>
+    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4">
+        <v>54</v>
+      </c>
+      <c r="K6" s="4">
+        <v>52</v>
+      </c>
+      <c r="L6" s="4">
+        <v>15</v>
+      </c>
+      <c r="M6" s="4">
+        <v>69</v>
+      </c>
+      <c r="N6" s="4">
+        <v>63</v>
+      </c>
+      <c r="O6" s="4">
+        <v>74</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
-    <row r="5" spans="1:37" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5">
-        <v>71</v>
-      </c>
-      <c r="E5" s="5">
-        <v>83</v>
-      </c>
-      <c r="F5" s="5">
-        <v>83</v>
-      </c>
-      <c r="G5" s="5">
-        <v>99</v>
-      </c>
-      <c r="H5" s="5">
-        <v>101</v>
-      </c>
-      <c r="I5" s="5">
-        <v>118</v>
-      </c>
-      <c r="J5" s="5">
-        <v>131</v>
-      </c>
-      <c r="K5" s="5">
-        <v>132</v>
-      </c>
-      <c r="L5" s="5">
-        <v>57</v>
-      </c>
-      <c r="M5" s="5">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7">
-        <v>36</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7">
-        <v>35</v>
-      </c>
-      <c r="J6" s="7">
-        <v>54</v>
-      </c>
-      <c r="K6" s="7">
-        <v>52</v>
-      </c>
-      <c r="L6" s="7">
-        <v>15</v>
-      </c>
-      <c r="M6" s="7">
-        <v>69</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="1">
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/municipal/ENG/Hotels/Number of Employees in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Employees in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\სასტუმროში დასაქმებულიები ქარ. EN\Number of Employees in Hotels and Hotel-type enterprises\Samegrelo-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\3.3 Number of Employees in Hotels and Hotel-type enterprises\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504CA7D8-008A-4ECC-98CF-203A2DB7DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1854B1-3903-435C-94D1-1733A4783CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mestia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,21 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>All</t>
+    <t>* Legal and individual enterprises registered in accordance with the Georgian legislation (including local units and branches).</t>
   </si>
   <si>
-    <t>Women</t>
+    <t>(Declared data)</t>
   </si>
   <si>
-    <t>Men</t>
+    <t>Number of employed persons in hotels and hotel-type enterprises* in Mestia municipality</t>
   </si>
   <si>
-    <t>Number of Employees in Hotels and Hotel-type enterprises in Mestia Municipality</t>
+    <t>(person)</t>
   </si>
   <si>
-    <t>(Persons)</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -49,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +72,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -79,14 +86,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -98,21 +98,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,7 +160,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -175,18 +169,9 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -194,59 +179,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -312,9 +308,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -347,9 +343,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -529,299 +525,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="11" style="20" customWidth="1"/>
+    <col min="2" max="12" width="8.28515625" style="22" customWidth="1"/>
+    <col min="13" max="15" width="8.28515625" style="12" customWidth="1"/>
+    <col min="16" max="22" width="8.85546875" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="9" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:37" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="3"/>
+    </row>
+    <row r="2" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+    </row>
+    <row r="3" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="17"/>
-    </row>
-    <row r="2" spans="1:37" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2013</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2020</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2021</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-    </row>
-    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="15">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="15">
-        <v>2012</v>
-      </c>
-      <c r="E3" s="15">
-        <v>2013</v>
-      </c>
-      <c r="F3" s="15">
-        <v>2014</v>
-      </c>
-      <c r="G3" s="15">
-        <v>2015</v>
-      </c>
-      <c r="H3" s="15">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="15">
-        <v>2017</v>
-      </c>
-      <c r="J3" s="15">
-        <v>2018</v>
-      </c>
-      <c r="K3" s="15">
-        <v>2019</v>
-      </c>
-      <c r="L3" s="15">
-        <v>2020</v>
-      </c>
-      <c r="M3" s="15">
-        <v>2021</v>
-      </c>
-      <c r="N3" s="15">
-        <v>2022</v>
-      </c>
-      <c r="O3" s="15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="B5" s="14">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14">
+        <v>60</v>
+      </c>
+      <c r="D5" s="14">
+        <v>92</v>
+      </c>
+      <c r="E5" s="14">
+        <v>109</v>
+      </c>
+      <c r="F5" s="14">
+        <v>100</v>
+      </c>
+      <c r="G5" s="14">
+        <v>135</v>
+      </c>
+      <c r="H5" s="14">
+        <v>133</v>
+      </c>
+      <c r="I5" s="14">
+        <v>153</v>
+      </c>
+      <c r="J5" s="14">
+        <v>185</v>
+      </c>
+      <c r="K5" s="14">
+        <v>184</v>
+      </c>
+      <c r="L5" s="14">
+        <v>72</v>
+      </c>
+      <c r="M5" s="14">
+        <v>217</v>
+      </c>
+      <c r="N5" s="14">
+        <v>201</v>
+      </c>
+      <c r="O5" s="14">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>31</v>
+      </c>
+      <c r="C6" s="16">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16">
+        <v>71</v>
+      </c>
+      <c r="E6" s="16">
+        <v>83</v>
+      </c>
+      <c r="F6" s="16">
+        <v>83</v>
+      </c>
+      <c r="G6" s="16">
+        <v>99</v>
+      </c>
+      <c r="H6" s="16">
+        <v>101</v>
+      </c>
+      <c r="I6" s="16">
+        <v>118</v>
+      </c>
+      <c r="J6" s="16">
+        <v>131</v>
+      </c>
+      <c r="K6" s="16">
+        <v>132</v>
+      </c>
+      <c r="L6" s="16">
+        <v>57</v>
+      </c>
+      <c r="M6" s="16">
+        <v>148</v>
+      </c>
+      <c r="N6" s="16">
+        <v>138</v>
+      </c>
+      <c r="O6" s="16">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>17</v>
+      </c>
+      <c r="C7" s="18">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18">
+        <v>21</v>
+      </c>
+      <c r="E7" s="18">
+        <v>26</v>
+      </c>
+      <c r="F7" s="18">
+        <v>17</v>
+      </c>
+      <c r="G7" s="18">
+        <v>36</v>
+      </c>
+      <c r="H7" s="18">
+        <v>32</v>
+      </c>
+      <c r="I7" s="18">
+        <v>35</v>
+      </c>
+      <c r="J7" s="18">
+        <v>54</v>
+      </c>
+      <c r="K7" s="18">
+        <v>52</v>
+      </c>
+      <c r="L7" s="18">
+        <v>15</v>
+      </c>
+      <c r="M7" s="18">
+        <v>69</v>
+      </c>
+      <c r="N7" s="18">
+        <v>63</v>
+      </c>
+      <c r="O7" s="18">
+        <v>74</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:37" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1">
-        <v>92</v>
-      </c>
-      <c r="E4" s="1">
-        <v>109</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>135</v>
-      </c>
-      <c r="H4" s="1">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1">
-        <v>153</v>
-      </c>
-      <c r="J4" s="1">
-        <v>185</v>
-      </c>
-      <c r="K4" s="1">
-        <v>184</v>
-      </c>
-      <c r="L4" s="1">
-        <v>72</v>
-      </c>
-      <c r="M4" s="1">
-        <v>217</v>
-      </c>
-      <c r="N4" s="1">
-        <v>201</v>
-      </c>
-      <c r="O4" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2">
-        <v>71</v>
-      </c>
-      <c r="E5" s="2">
-        <v>83</v>
-      </c>
-      <c r="F5" s="2">
-        <v>83</v>
-      </c>
-      <c r="G5" s="2">
-        <v>99</v>
-      </c>
-      <c r="H5" s="2">
-        <v>101</v>
-      </c>
-      <c r="I5" s="2">
-        <v>118</v>
-      </c>
-      <c r="J5" s="2">
-        <v>131</v>
-      </c>
-      <c r="K5" s="2">
-        <v>132</v>
-      </c>
-      <c r="L5" s="2">
-        <v>57</v>
-      </c>
-      <c r="M5" s="2">
-        <v>148</v>
-      </c>
-      <c r="N5" s="2">
-        <v>138</v>
-      </c>
-      <c r="O5" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4">
-        <v>36</v>
-      </c>
-      <c r="H6" s="4">
-        <v>32</v>
-      </c>
-      <c r="I6" s="4">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4">
-        <v>54</v>
-      </c>
-      <c r="K6" s="4">
-        <v>52</v>
-      </c>
-      <c r="L6" s="4">
-        <v>15</v>
-      </c>
-      <c r="M6" s="4">
-        <v>69</v>
-      </c>
-      <c r="N6" s="4">
-        <v>63</v>
-      </c>
-      <c r="O6" s="4">
-        <v>74</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:E7"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>